--- a/학습자료/연표/사건 순서_연도별모음.xlsx
+++ b/학습자료/연표/사건 순서_연도별모음.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B52"/>
+  <dimension ref="A1:B76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1014,6 +1014,249 @@
         </is>
       </c>
     </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>900</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>후백제 건국</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>901</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>후고구려 건국</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>903</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>왕건의 나주 점령</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>918</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>고려 건국</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>926</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>발해 멸망</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>927</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>공산 전투</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>930</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>고창 전투</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>934</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>대광현 귀순</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>935</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>견훤 귀순
+경순왕 귀순</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>936</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>일리천 전투</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>1173</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>김보당의 난</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>1174</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>정중부 집권
+조위총의 난
+교종 계통 승려의 난</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>1176</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>망이, 망소이의 난</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>1179</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>경대승 집권</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>1182</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>전주 관노의 난</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>1183</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>이의민 집권</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>1193</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>김사미, 효심의 난</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>1196</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>최충헌 집권</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>1198</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>만적의 난</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>1200</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>광명, 계발의 난</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>1202</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>이비, 패좌의 난</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>1217</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>최광수의 난</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>1219</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>최우 집권</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>1237</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>이연년 형제의 난</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/학습자료/연표/사건 순서_연도별모음.xlsx
+++ b/학습자료/연표/사건 순서_연도별모음.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B76"/>
+  <dimension ref="A1:B96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1257,6 +1257,258 @@
         </is>
       </c>
     </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>1592년 4월</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>왜군의 침략
+부산진 전투(정발)
+동래성 전투(송상현)
+상주 전투(이일)
+충주 탄금대 전투(신립)</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>1592년 5월</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>한양 함락
+옥포 해전
+사천 해전</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>1592년 6월</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>평양성 함락
+선조, 의주 도착</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>1592년 7월</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>한산도 대첩
+이치 권율
+금산 전투</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>1592년 10월</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>진주 대첩</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>1593년 1월</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>평양성 탈환
+벡제관 전투</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>1593년 2월</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>행주 대첩</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>1593년 6월</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>진주성 2차 혈전</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>1593년 8월</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>훈련도감 설치</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>1593년 10월</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>선조의 환도</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>1596년 7월</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>이몽학의 난</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>1597년 7월</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>정유재란 발발
+칠천량 해전</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>1597년 9월</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>직산 전투
+명량 전투</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>1598년 11월</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>노량 해전</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>세조</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>보법</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>15세기 중엽</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>대립</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>16세기 초</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>방군 수포</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>16세기 중엽</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>군적 수포제</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>영조 26년 1750</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>균역법 실시</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>흥선대원군</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>호포제</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
